--- a/covidnew_us.xlsx
+++ b/covidnew_us.xlsx
@@ -3507,10 +3507,10 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>3118</v>
+        <v>3374</v>
       </c>
       <c r="C224">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/covidnew_us.xlsx
+++ b/covidnew_us.xlsx
@@ -3507,7 +3507,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="C224">
         <v>48</v>

--- a/covidnew_us.xlsx
+++ b/covidnew_us.xlsx
@@ -3507,7 +3507,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="C224">
         <v>48</v>

--- a/covidnew_us.xlsx
+++ b/covidnew_us.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="227">
   <si>
     <t>Confirmed</t>
   </si>
@@ -686,6 +686,15 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3507,10 +3516,43 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>3374</v>
+        <v>34714</v>
       </c>
       <c r="C224">
-        <v>48</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>51406</v>
+      </c>
+      <c r="C225">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>23261</v>
+      </c>
+      <c r="C226">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>3809</v>
+      </c>
+      <c r="C227">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
